--- a/trunk/Design/Work.xlsx
+++ b/trunk/Design/Work.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="20120119" sheetId="2" r:id="rId2"/>
     <sheet name="20120130" sheetId="3" r:id="rId3"/>
+    <sheet name="20120201" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>in Maven control</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JavaSSH framework develop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,7 +151,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13:45-15:45</t>
+    <t>13:45-16:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">test to communicate with linux with stream </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:00-16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F11:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -632,10 +645,10 @@
         <v>11</v>
       </c>
       <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
         <v>14</v>
-      </c>
-      <c r="K11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="6:11" x14ac:dyDescent="0.15">
@@ -643,89 +656,120 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="6:11" x14ac:dyDescent="0.15">
       <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" t="s">
         <v>34</v>
-      </c>
-      <c r="K14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="15" spans="6:11" x14ac:dyDescent="0.15">
       <c r="G15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="6:11" x14ac:dyDescent="0.15">
       <c r="G16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" t="s">
         <v>20</v>
-      </c>
-      <c r="H17" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
         <v>22</v>
-      </c>
-      <c r="H18" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s">
         <v>24</v>
-      </c>
-      <c r="H19" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="20" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
         <v>27</v>
-      </c>
-      <c r="H20" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="21" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
         <v>29</v>
-      </c>
-      <c r="H21" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="22" spans="7:8" x14ac:dyDescent="0.15">
       <c r="G22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
         <v>32</v>
-      </c>
-      <c r="H22" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F13:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="13" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>